--- a/66-fft.xlsx
+++ b/66-fft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11352" windowHeight="8988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11352" windowHeight="8988" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sig</t>
   </si>
@@ -44,7 +44,10 @@
     <t>mic 660 far</t>
   </si>
   <si>
-    <t>mic 660 input amp</t>
+    <t>Mic w/o Amp</t>
+  </si>
+  <si>
+    <t>Mic w/ Amp</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mic 660 input amp</c:v>
+                  <c:v>Mic w/ Amp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1387,6 +1390,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Testing Amplifier on 660Hz tone through Microphone</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1402,7 +1461,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mic 660 input amp</c:v>
+                  <c:v>Mic w/ Amp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1419,6 +1478,154 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Bin</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> Number</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>: </a:t>
+                    </a:r>
+                    <a:fld id="{82BCF36F-3FA0-4E94-835E-C438A1F80441}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D4DE-465C-A98A-7CF8AB3C2C84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet3!$A$2:$A$129</c:f>
@@ -1827,6 +2034,9 @@
               <c:f>Sheet3!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mic w/o Amp</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2242,429 +2452,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$C$2:$C$129</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="128"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1291-494F-B92C-3A06D01B5AC5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2684,6 +2471,75 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2748,6 +2604,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Amplitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2791,6 +2702,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3611,6 +3553,50 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3675,6 +3661,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3718,6 +3734,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6065,16 +6112,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6108,16 +6155,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6444,8 +6491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8535,14 +8582,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9965,7 +10015,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
